--- a/data/134/DEUSTATIS/old/Retail price index.xlsx
+++ b/data/134/DEUSTATIS/old/Retail price index.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="67">
   <si>
     <t>Index of retail prices: Germany, months, value added tax,
 economic activities</t>
@@ -214,7 +214,7 @@
     <t>Before 2005, including retail sale of automotive fuel.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:20:39</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:17:07</t>
   </si>
 </sst>
 </file>
@@ -9547,14 +9547,14 @@
       <c r="NF8" t="n" s="10">
         <v>108.3</v>
       </c>
-      <c r="NG8" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NH8" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NI8" t="s" s="10">
-        <v>52</v>
+      <c r="NG8" t="n" s="10">
+        <v>109.1</v>
+      </c>
+      <c r="NH8" t="n" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="NI8" t="n" s="10">
+        <v>110.3</v>
       </c>
       <c r="NJ8" t="s" s="10">
         <v>52</v>
@@ -10671,14 +10671,14 @@
       <c r="NF9" t="n" s="10">
         <v>111.2</v>
       </c>
-      <c r="NG9" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NH9" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NI9" t="s" s="10">
-        <v>52</v>
+      <c r="NG9" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="NH9" t="n" s="10">
+        <v>111.5</v>
+      </c>
+      <c r="NI9" t="n" s="10">
+        <v>111.9</v>
       </c>
       <c r="NJ9" t="s" s="10">
         <v>52</v>
@@ -11795,14 +11795,14 @@
       <c r="NF10" t="n" s="10">
         <v>107.5</v>
       </c>
-      <c r="NG10" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NH10" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NI10" t="s" s="10">
-        <v>52</v>
+      <c r="NG10" t="n" s="10">
+        <v>107.6</v>
+      </c>
+      <c r="NH10" t="n" s="10">
+        <v>107.8</v>
+      </c>
+      <c r="NI10" t="n" s="10">
+        <v>107.8</v>
       </c>
       <c r="NJ10" t="s" s="10">
         <v>52</v>
@@ -12919,14 +12919,14 @@
       <c r="NF11" t="n" s="10">
         <v>107.5</v>
       </c>
-      <c r="NG11" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NH11" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NI11" t="s" s="10">
-        <v>52</v>
+      <c r="NG11" t="n" s="10">
+        <v>108.3</v>
+      </c>
+      <c r="NH11" t="n" s="10">
+        <v>108.2</v>
+      </c>
+      <c r="NI11" t="n" s="10">
+        <v>108.1</v>
       </c>
       <c r="NJ11" t="s" s="10">
         <v>52</v>
@@ -13014,7 +13014,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:20:44&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:17:13&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>